--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F9A3C-60F8-49C1-9860-105E75B47479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89488F91-CF24-4F75-9889-5C50E2B5C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="252">
   <si>
     <t>custType</t>
   </si>
@@ -225,12 +225,6 @@
     <t>Customer reference</t>
   </si>
   <si>
-    <t>NEW I20</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
     <t>800000</t>
   </si>
   <si>
@@ -591,48 +585,6 @@
     <t>empName</t>
   </si>
   <si>
-    <t>MALPC812LNM362012</t>
-  </si>
-  <si>
-    <t>10291</t>
-  </si>
-  <si>
-    <t>Karingu Anil Kumar</t>
-  </si>
-  <si>
-    <t>MALBJ512LNM154069</t>
-  </si>
-  <si>
-    <t>6455</t>
-  </si>
-  <si>
-    <t>MALPA813LNM355396</t>
-  </si>
-  <si>
-    <t>14343</t>
-  </si>
-  <si>
-    <t>Karingula Umesh</t>
-  </si>
-  <si>
-    <t>nextFollowupType</t>
-  </si>
-  <si>
-    <t>nextFollowupTime</t>
-  </si>
-  <si>
-    <t>tdOffer</t>
-  </si>
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>vin_number</t>
-  </si>
-  <si>
-    <t>transmission_type</t>
-  </si>
-  <si>
     <t>test_drive_datetime</t>
   </si>
   <si>
@@ -642,36 +594,9 @@
     <t>followupRemarks</t>
   </si>
   <si>
-    <t>9121412109</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>1.0 T  Asta (O) DCT</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>2023-06-05 10:56:00</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>9989912727</t>
-  </si>
-  <si>
-    <t>ALCAZAR</t>
-  </si>
-  <si>
-    <t>Signature (O) AT (6STR) DT PTRL</t>
-  </si>
-  <si>
-    <t>Automatic</t>
-  </si>
-  <si>
     <t>2023-06-15 10:04:00</t>
   </si>
   <si>
@@ -765,20 +690,107 @@
     <t>Whatsapp Blast</t>
   </si>
   <si>
-    <t>nand55@gmail.com</t>
-  </si>
-  <si>
-    <t>Jeevan9@gmail.com</t>
-  </si>
-  <si>
-    <t>Kumarraju@gmail.com</t>
+    <t>MALB351CYRM593531</t>
+  </si>
+  <si>
+    <t>4TH YEAR OR UP TO 80,000 KM EXTENDED WARRANTY</t>
+  </si>
+  <si>
+    <t>CHENIGACHERLA SAMPATH RAJ</t>
+  </si>
+  <si>
+    <t>MALBH512TRM338094</t>
+  </si>
+  <si>
+    <t>MALBJ512LRM341076</t>
+  </si>
+  <si>
+    <t>A BHARATH</t>
+  </si>
+  <si>
+    <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHENIGACHERLA SAMPATH RAJ </t>
+  </si>
+  <si>
+    <t>MALPA812LRM104432</t>
+  </si>
+  <si>
+    <t>AJAY PULIPATI</t>
+  </si>
+  <si>
+    <t>nandKuamr@gmail.com</t>
+  </si>
+  <si>
+    <t>JeevanSatya@gmail.com</t>
+  </si>
+  <si>
+    <t>KumarRana@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>TDOffer</t>
+  </si>
+  <si>
+    <t>TDVin</t>
+  </si>
+  <si>
+    <t>DepositCertificate</t>
+  </si>
+  <si>
+    <t>NextFollowUptime</t>
+  </si>
+  <si>
+    <t>TextFollow</t>
+  </si>
+  <si>
+    <t>FollowUptype</t>
+  </si>
+  <si>
+    <t>nextFollowUpType</t>
+  </si>
+  <si>
+    <t>EnquiryTypeValue</t>
+  </si>
+  <si>
+    <t>MALB551CYPM400978-Grand i10 NIOS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Need to check</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Home Visit</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Video Conference</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Refused</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -813,6 +825,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE3E3E3"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -859,15 +890,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -886,14 +918,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{1A14863E-3F93-4E1E-B9B2-96E27A5F7083}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{D924B725-4337-41A0-BA6F-0F6624E16348}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{B33B7A2C-F9E1-47B4-9311-86F54F1C475B}"/>
     <cellStyle name="Normal 5" xfId="2" xr:uid="{E79EB5CD-0A5D-4B75-8D8D-7ADBC584F316}"/>
+    <cellStyle name="Normal 6" xfId="6" xr:uid="{EB86B3C0-D20E-473E-BB9B-5A64859722BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1207,16 +1245,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1356,24 +1394,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="25">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>9551457237</v>
+        <v>9534357137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -1397,49 +1435,49 @@
         <v>47</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="P2" t="s">
         <v>53</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="R2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="X2" t="s">
         <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Z2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AE2" t="s">
         <v>55</v>
@@ -1457,18 +1495,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="37.5">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C3">
-        <v>8251203177</v>
+        <v>9251456177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1504,49 +1542,49 @@
         <v>53</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="R3" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Z3" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AE3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="s">
         <v>57</v>
@@ -1555,24 +1593,24 @@
         <v>46</v>
       </c>
       <c r="AT3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" ht="25" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C4">
-        <v>9752033712</v>
+        <v>8752123712</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1608,49 +1646,49 @@
         <v>53</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="R4" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Z4" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AE4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s">
         <v>57</v>
       </c>
       <c r="AS4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT4" t="s">
         <v>58</v>
@@ -1672,26 +1710,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1712,151 +1750,151 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>89</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>90</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>91</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>99</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>103</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>104</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>105</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>106</v>
       </c>
-      <c r="N3" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="O3" t="s">
+      <c r="B4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
         <v>115</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>116</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>117</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>118</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>119</v>
-      </c>
-      <c r="N4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1870,287 +1908,287 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>137</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>138</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>139</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>140</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>141</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>142</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>143</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="AG1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>156</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>157</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" t="s">
         <v>158</v>
       </c>
-      <c r="P2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>159</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T3" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" t="s">
         <v>159</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V3" t="s">
         <v>160</v>
       </c>
-      <c r="U2" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" t="s">
-        <v>162</v>
-      </c>
-      <c r="W2" t="s">
-        <v>163</v>
-      </c>
-      <c r="X2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="W3" t="s">
+        <v>171</v>
+      </c>
+      <c r="X3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O3" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>171</v>
-      </c>
-      <c r="S3" t="s">
-        <v>171</v>
-      </c>
-      <c r="T3" t="s">
-        <v>172</v>
-      </c>
-      <c r="U3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" t="s">
-        <v>162</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="AG3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
         <v>174</v>
       </c>
-      <c r="Z3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
         <v>175</v>
       </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="O4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" t="s">
         <v>176</v>
       </c>
-      <c r="F4" t="s">
+      <c r="S4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="O4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
+        <v>159</v>
+      </c>
+      <c r="V4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W4" t="s">
         <v>178</v>
       </c>
-      <c r="S4" t="s">
-        <v>178</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="U4" t="s">
-        <v>161</v>
-      </c>
-      <c r="V4" t="s">
-        <v>162</v>
-      </c>
-      <c r="W4" t="s">
-        <v>180</v>
-      </c>
-      <c r="X4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>181</v>
-      </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2160,91 +2198,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="47.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>195</v>
-      </c>
+      <c r="F4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2253,77 +2292,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>208</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="11">
+        <v>9885588888</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45682.451388888898</v>
+      </c>
+      <c r="F2" s="14">
+        <v>45668.020833333299</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L2" t="s">
         <v>58</v>
@@ -2332,30 +2392,37 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>208</v>
+    <row r="3" spans="1:13">
+      <c r="A3" s="11">
+        <v>9720243505</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45672.493055555598</v>
+      </c>
+      <c r="F3" s="14">
+        <v>45669.020833333299</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="K3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
         <v>58</v>
@@ -2364,30 +2431,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>214</v>
-      </c>
+    <row r="4" spans="1:13">
+      <c r="A4" s="11">
+        <v>9664587887</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
         <v>58</v>
@@ -2395,6 +2457,58 @@
       <c r="M4" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="11">
+        <v>9676562365</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11">
+        <v>9959267961</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="11">
+        <v>7865897654</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2403,66 +2517,78 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="59.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E2" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E3" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
-        <v>195</v>
+      <c r="E4" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89488F91-CF24-4F75-9889-5C50E2B5C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB55260-6768-4F96-A492-7FF0947DF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,12 +788,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,18 +839,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFE3E3E3"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -892,37 +887,36 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2292,17 +2286,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.90625" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
     <col min="4" max="4" width="23.54296875" customWidth="1"/>
     <col min="5" max="5" width="20.08984375" customWidth="1"/>
     <col min="6" max="6" width="25.1796875" customWidth="1"/>
@@ -2313,61 +2307,63 @@
     <col min="11" max="11" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="11">
         <v>9885588888</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>45682.451388888898</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>45668.020833333299</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -2382,33 +2378,34 @@
       <c r="J2" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>9720243505</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>45672.493055555598</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>45669.020833333299</v>
       </c>
       <c r="G3" s="11"/>
@@ -2421,17 +2418,18 @@
       <c r="J3" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="11">
         <v>9664587887</v>
       </c>
@@ -2448,17 +2446,18 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" t="s">
+      <c r="K4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>9676562365</v>
       </c>
@@ -2475,8 +2474,12 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="11">
         <v>9959267961</v>
       </c>
@@ -2493,8 +2496,12 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>7865897654</v>
       </c>
@@ -2509,6 +2516,42 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB55260-6768-4F96-A492-7FF0947DF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,25 @@
     <sheet name="Test Drive - Enquiry" sheetId="5" r:id="rId5"/>
     <sheet name="SOT Leads" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="254">
   <si>
     <t>custType</t>
   </si>
@@ -165,76 +172,163 @@
     <t>companyName</t>
   </si>
   <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Ravan</t>
+  </si>
+  <si>
+    <t>nandKuamr@gmail.com</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Telang+E3+F+F2:AH4</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Vikarabad</t>
+  </si>
+  <si>
+    <t>501101</t>
+  </si>
+  <si>
+    <t>2-85 Police Colony</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Whatsapp Blast</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Grand I10 NIOS</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Titan Grey (R4G)</t>
+  </si>
+  <si>
+    <t>ABYSS BLACK PEARL</t>
+  </si>
+  <si>
+    <t>In House</t>
+  </si>
+  <si>
+    <t>HDFC Bank Ltd</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>BEHARA ARUN KUMAR</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Pre Approved</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:26:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra Scorpio Purchased </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Already Purchased Scorpio Vehicle </t>
+  </si>
+  <si>
     <t>Government</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Vikarabad</t>
-  </si>
-  <si>
-    <t>501101</t>
-  </si>
-  <si>
-    <t>2-85 Police Colony</t>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopi </t>
+  </si>
+  <si>
+    <t>JeevanSatya@gmail.com</t>
+  </si>
+  <si>
+    <t>Bkothagudem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuguru </t>
+  </si>
+  <si>
+    <t>507117</t>
+  </si>
+  <si>
+    <t>Manuguru</t>
+  </si>
+  <si>
+    <t>5-66 Bapanakunta</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Customer reference</t>
+  </si>
+  <si>
+    <t>Out House</t>
+  </si>
+  <si>
+    <t>State Bank Of India</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>With In 2 months</t>
+  </si>
+  <si>
+    <t>With Family</t>
+  </si>
+  <si>
+    <t>2022-07-21 06:25:21</t>
+  </si>
+  <si>
+    <t>Sccl</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Infra Plywood</t>
+  </si>
+  <si>
+    <t>KumarRana@gmail.com</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
   </si>
   <si>
     <t>Showroom</t>
   </si>
   <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>2024-06-06 16:26:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahindra Scorpio Purchased </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Already Purchased Scorpio Vehicle </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Bkothagudem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuguru </t>
-  </si>
-  <si>
-    <t>507117</t>
-  </si>
-  <si>
-    <t>Manuguru</t>
-  </si>
-  <si>
-    <t>5-66 Bapanakunta</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Customer reference</t>
-  </si>
-  <si>
-    <t>800000</t>
-  </si>
-  <si>
-    <t>2022-07-21 06:25:21</t>
-  </si>
-  <si>
-    <t>Sccl</t>
-  </si>
-  <si>
-    <t>Individual</t>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>ICICI Bank Ltd</t>
   </si>
   <si>
     <t>phone</t>
@@ -480,6 +574,9 @@
     <t>additionalInsurance</t>
   </si>
   <si>
+    <t>Error Logs</t>
+  </si>
+  <si>
     <t>9912050636</t>
   </si>
   <si>
@@ -522,6 +619,9 @@
     <t>500.0</t>
   </si>
   <si>
+    <t>Row 1 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
+  </si>
+  <si>
     <t>9000306606</t>
   </si>
   <si>
@@ -546,6 +646,9 @@
     <t>4158.0</t>
   </si>
   <si>
+    <t>Row 2 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
+  </si>
+  <si>
     <t>9440358176</t>
   </si>
   <si>
@@ -567,6 +670,9 @@
     <t>19999.0</t>
   </si>
   <si>
+    <t>Row 3 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
+  </si>
+  <si>
     <t>vinno</t>
   </si>
   <si>
@@ -585,127 +691,135 @@
     <t>empName</t>
   </si>
   <si>
+    <t>MALB351CYRM593531</t>
+  </si>
+  <si>
+    <t>4TH YEAR OR UP TO 80,000 KM EXTENDED WARRANTY</t>
+  </si>
+  <si>
+    <t>CHENIGACHERLA SAMPATH RAJ</t>
+  </si>
+  <si>
+    <t>MALBH512TRM338094</t>
+  </si>
+  <si>
+    <t>MALBJ512LRM341076</t>
+  </si>
+  <si>
+    <t>A BHARATH</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>TDOffer</t>
+  </si>
+  <si>
+    <t>TDVin</t>
+  </si>
+  <si>
+    <t>DepositCertificate</t>
+  </si>
+  <si>
     <t>test_drive_datetime</t>
   </si>
   <si>
-    <t>followUpType</t>
-  </si>
-  <si>
-    <t>followupRemarks</t>
-  </si>
-  <si>
-    <t>2023-06-05 10:56:00</t>
-  </si>
-  <si>
-    <t>2023-06-15 10:04:00</t>
-  </si>
-  <si>
-    <t>Error Logs</t>
-  </si>
-  <si>
-    <t>Row 1 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
-  </si>
-  <si>
-    <t>Row 2 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
-  </si>
-  <si>
-    <t>Row 3 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Ravan</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>Telang+E3+F+F2:AH4</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>Grand I10 NIOS</t>
-  </si>
-  <si>
-    <t>PETROL</t>
-  </si>
-  <si>
-    <t>GLS</t>
-  </si>
-  <si>
-    <t>Titan Grey (R4G)</t>
-  </si>
-  <si>
-    <t>ABYSS BLACK PEARL</t>
-  </si>
-  <si>
-    <t>In House</t>
-  </si>
-  <si>
-    <t>HDFC Bank Ltd</t>
-  </si>
-  <si>
-    <t>BEHARA ARUN KUMAR</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Pre Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gopi </t>
-  </si>
-  <si>
-    <t>Out House</t>
-  </si>
-  <si>
-    <t>State Bank Of India</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>With In 2 months</t>
-  </si>
-  <si>
-    <t>With Family</t>
-  </si>
-  <si>
-    <t>Infra Plywood</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>CNG</t>
-  </si>
-  <si>
-    <t>ICICI Bank Ltd</t>
-  </si>
-  <si>
-    <t>Whatsapp Blast</t>
-  </si>
-  <si>
-    <t>MALB351CYRM593531</t>
-  </si>
-  <si>
-    <t>4TH YEAR OR UP TO 80,000 KM EXTENDED WARRANTY</t>
-  </si>
-  <si>
-    <t>CHENIGACHERLA SAMPATH RAJ</t>
-  </si>
-  <si>
-    <t>MALBH512TRM338094</t>
-  </si>
-  <si>
-    <t>MALBJ512LRM341076</t>
-  </si>
-  <si>
-    <t>A BHARATH</t>
+    <t>NextFollowUptime</t>
+  </si>
+  <si>
+    <t>TextFollow</t>
+  </si>
+  <si>
+    <t>FollowUptype</t>
+  </si>
+  <si>
+    <t>nextFollowUpType</t>
+  </si>
+  <si>
+    <t>EnquiryTypeValue</t>
+  </si>
+  <si>
+    <t>MALB551CYPM400978-Grand i10 NIOS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Need to check</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Home Visit</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Video Conference</t>
+  </si>
+  <si>
+    <t>Row 2 execution FAILED: java.lang.reflect.InvocationTargetException
+Build info: version: '4.27.0', revision: 'd6e718d134'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0d39118451245cb3b91e3881ae873cbf, actions {actions=[org.openqa.selenium.interactions.Sequence@4ef28dc4]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50550}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50550/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0d39118451245cb3b91e3881ae873cbf</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Row 3 execution FAILED: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=131.0.6778.265)
+Build info: version: '4.27.0', revision: 'd6e718d134'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e130db1d513abb6f46833b603abe9dd8, findElement {value=//*[text()="Follow Up"], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e130db1d513abb6f46833b603abe9dd8</t>
+  </si>
+  <si>
+    <t>Row 4 execution FAILED: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=131.0.6778.265)
+Build info: version: '4.27.0', revision: 'd6e718d134'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e130db1d513abb6f46833b603abe9dd8, refresh {}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e130db1d513abb6f46833b603abe9dd8</t>
+  </si>
+  <si>
+    <t>Row 5 execution FAILED: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=131.0.6778.265)
+Build info: version: '4.27.0', revision: 'd6e718d134'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e130db1d513abb6f46833b603abe9dd8, refresh {}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e130db1d513abb6f46833b603abe9dd8</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>Row 6 execution FAILED: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=131.0.6778.265)
+Build info: version: '4.27.0', revision: 'd6e718d134'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e130db1d513abb6f46833b603abe9dd8, refresh {}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e130db1d513abb6f46833b603abe9dd8</t>
   </si>
   <si>
     <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
@@ -718,121 +832,20 @@
   </si>
   <si>
     <t>AJAY PULIPATI</t>
-  </si>
-  <si>
-    <t>nandKuamr@gmail.com</t>
-  </si>
-  <si>
-    <t>JeevanSatya@gmail.com</t>
-  </si>
-  <si>
-    <t>KumarRana@gmail.com</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>TDOffer</t>
-  </si>
-  <si>
-    <t>TDVin</t>
-  </si>
-  <si>
-    <t>DepositCertificate</t>
-  </si>
-  <si>
-    <t>NextFollowUptime</t>
-  </si>
-  <si>
-    <t>TextFollow</t>
-  </si>
-  <si>
-    <t>FollowUptype</t>
-  </si>
-  <si>
-    <t>nextFollowUpType</t>
-  </si>
-  <si>
-    <t>EnquiryTypeValue</t>
-  </si>
-  <si>
-    <t>MALB551CYPM400978-Grand i10 NIOS</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Need to check</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Home Visit</t>
-  </si>
-  <si>
-    <t>Warm</t>
-  </si>
-  <si>
-    <t>Video Conference</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Refused</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303030"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -840,8 +853,184 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303030"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE3E3E3"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,8 +1049,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -871,70 +1246,352 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="51" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="54">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{1A14863E-3F93-4E1E-B9B2-96E27A5F7083}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D924B725-4337-41A0-BA6F-0F6624E16348}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{B33B7A2C-F9E1-47B4-9311-86F54F1C475B}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{E79EB5CD-0A5D-4B75-8D8D-7ADBC584F316}"/>
-    <cellStyle name="Normal 6" xfId="6" xr:uid="{EB86B3C0-D20E-473E-BB9B-5A64859722BC}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Normal 3" xfId="50"/>
+    <cellStyle name="Normal 4" xfId="51"/>
+    <cellStyle name="Normal 5" xfId="52"/>
+    <cellStyle name="Normal 6" xfId="53"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -983,7 +1640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1016,26 +1673,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1068,23 +1708,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1226,24 +1849,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
@@ -1388,342 +2006,346 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="25">
-      <c r="A2" s="1" t="s">
-        <v>195</v>
+    <row r="2" ht="26.4" spans="1:46">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>9534357137</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>231</v>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>220</v>
+        <v>55</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>200</v>
+        <v>58</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Y2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="Z2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="s">
-        <v>209</v>
+        <v>68</v>
+      </c>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AT2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="37.5">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
+    <row r="3" ht="39.6" spans="1:46">
+      <c r="A3" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>9251456177</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>232</v>
+      <c r="D3" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="R3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="S3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="T3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="U3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="R3" t="s">
-        <v>201</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>212</v>
+      <c r="V3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="Y3" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="Z3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>209</v>
+        <v>87</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AS3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AT3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="25">
+    <row r="4" ht="26.4" spans="1:46">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>8752123712</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>233</v>
+      <c r="D4" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="R4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="T4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
+      <c r="U4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="R4" t="s">
-        <v>218</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>219</v>
+      <c r="V4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="Y4" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6" t="s">
-        <v>209</v>
+        <v>87</v>
+      </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AS4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AT4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{AA56A644-5710-41D3-8898-EEBB720DCDA9}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C570946C-D583-4F97-9462-F43E7BC5D7A5}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{66CD34EE-C148-485B-87FF-1B5785823CB0}"/>
+    <hyperlink ref="D2" r:id="rId1" display="nandKuamr@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="JeevanSatya@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="KumarRana@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1744,897 +2366,873 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="Q1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="R1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="S1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="T1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="V1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="W1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="X1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="Z1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="AB1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="AC1" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="AD1" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="AE1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AF1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="AG1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Q2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="R2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="S2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="T2" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="U2" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="W2" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="X2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Y2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Z2" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="AG2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="R3" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="S3" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="T3" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="U3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="W3" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="X3" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Y3" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="Z3" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="AC3" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="AG3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Q4" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="S4" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="T4" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="U4" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="W4" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="X4" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Y4" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="Z4" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AC4" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="AG4" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.1759259259259" customWidth="1"/>
+    <col min="2" max="2" width="20.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="47.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="17.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="22.0925925925926" customWidth="1"/>
+    <col min="6" max="6" width="28.7222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="A4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="25.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="22.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="15.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="16.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="20.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="16.7777777777778"/>
+    <col min="39" max="39" width="11.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>9885588888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D2" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E2" s="5">
+        <v>45682.4513888889</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45668.0208333333</v>
+      </c>
+      <c r="G2" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H2" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I2" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K2" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:19">
+      <c r="A3">
+        <v>9720243505</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45672.4930555556</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45669.0208333333</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" s="12"/>
+      <c r="I3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="S3" s="5"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11">
-        <v>9885588888</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="11" t="s">
+    <row r="4" customFormat="1" spans="1:11">
+      <c r="A4">
+        <v>9664587887</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="13">
-        <v>45682.451388888898</v>
-      </c>
-      <c r="F2" s="13">
-        <v>45668.020833333299</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="11" t="s">
+    </row>
+    <row r="5" customFormat="1" spans="1:39">
+      <c r="A5">
+        <v>9676562365</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="AM5">
+        <v>9676562365</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:39">
+      <c r="A6">
+        <v>9959267961</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
         <v>247</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="AM6">
+        <v>9959267961</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:39">
+      <c r="A7">
+        <v>7865897654</v>
+      </c>
+      <c r="B7" t="s">
         <v>248</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="11">
-        <v>9720243505</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45672.493055555598</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45669.020833333299</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
         <v>249</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="11">
-        <v>9664587887</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="11">
-        <v>9676562365</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="11">
-        <v>9959267961</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="11">
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="AM7">
         <v>7865897654</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="59.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="37.2685185185185" customWidth="1"/>
+    <col min="2" max="2" width="22.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="59.7222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="30.5462962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>228</v>
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>226</v>
+      <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>230</v>
+      <c r="A4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -2919,7 +2919,7 @@
   <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -2986,7 +2986,7 @@
         <v>236</v>
       </c>
       <c r="E2" s="5">
-        <v>45682.4513888889</v>
+        <v>45682.4097222222</v>
       </c>
       <c r="F2" s="5">
         <v>45668.0208333333</v>
@@ -3006,9 +3006,6 @@
       <c r="K2" t="s">
         <v>241</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" customFormat="1" spans="1:19">
@@ -3030,7 +3027,6 @@
       <c r="F3" s="5">
         <v>45669.0208333333</v>
       </c>
-      <c r="G3"/>
       <c r="H3" t="s">
         <v>242</v>
       </c>
@@ -3043,9 +3039,6 @@
       <c r="K3" t="s">
         <v>243</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" customFormat="1" spans="1:11">
@@ -3055,16 +3048,9 @@
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>244</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
       <c r="K4" t="s">
         <v>245</v>
       </c>
@@ -3076,22 +3062,12 @@
       <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>244</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
       <c r="K5" t="s">
         <v>246</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="AM5">
         <v>9676562365</v>
       </c>
@@ -3103,22 +3079,12 @@
       <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>244</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
       <c r="K6" t="s">
         <v>247</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="AM6">
         <v>9959267961</v>
       </c>
@@ -3130,20 +3096,9 @@
       <c r="B7" t="s">
         <v>248</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
       <c r="K7" t="s">
         <v>249</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="AM7">
         <v>7865897654</v>
       </c>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="246">
   <si>
     <t>custType</t>
   </si>
@@ -758,68 +758,6 @@
   </si>
   <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>Video Conference</t>
-  </si>
-  <si>
-    <t>Row 2 execution FAILED: java.lang.reflect.InvocationTargetException
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0d39118451245cb3b91e3881ae873cbf, actions {actions=[org.openqa.selenium.interactions.Sequence@4ef28dc4]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50550}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50550/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0d39118451245cb3b91e3881ae873cbf</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Row 3 execution FAILED: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=131.0.6778.265)
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e130db1d513abb6f46833b603abe9dd8, findElement {value=//*[text()="Follow Up"], using=xpath}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e130db1d513abb6f46833b603abe9dd8</t>
-  </si>
-  <si>
-    <t>Row 4 execution FAILED: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=131.0.6778.265)
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e130db1d513abb6f46833b603abe9dd8, refresh {}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e130db1d513abb6f46833b603abe9dd8</t>
-  </si>
-  <si>
-    <t>Row 5 execution FAILED: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=131.0.6778.265)
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e130db1d513abb6f46833b603abe9dd8, refresh {}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e130db1d513abb6f46833b603abe9dd8</t>
-  </si>
-  <si>
-    <t>Refused</t>
-  </si>
-  <si>
-    <t>Row 6 execution FAILED: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=131.0.6778.265)
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.13'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e130db1d513abb6f46833b603abe9dd8, refresh {}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\Anjali\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61729}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61729/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e130db1d513abb6f46833b603abe9dd8</t>
   </si>
   <si>
     <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
@@ -2916,13 +2854,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
@@ -2972,7 +2910,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" ht="22" customHeight="1" spans="1:19">
       <c r="A2">
         <v>9885588888</v>
       </c>
@@ -3008,100 +2946,12 @@
       </c>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" customFormat="1" spans="1:19">
-      <c r="A3">
-        <v>9720243505</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45672.4930555556</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45669.0208333333</v>
-      </c>
-      <c r="H3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" t="s">
-        <v>243</v>
-      </c>
+    <row r="3" customFormat="1" spans="3:19">
+      <c r="C3" s="4"/>
+      <c r="D3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="S3" s="5"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:11">
-      <c r="A4">
-        <v>9664587887</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:39">
-      <c r="A5">
-        <v>9676562365</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>244</v>
-      </c>
-      <c r="K5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM5">
-        <v>9676562365</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:39">
-      <c r="A6">
-        <v>9959267961</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>244</v>
-      </c>
-      <c r="K6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM6">
-        <v>9959267961</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:39">
-      <c r="A7">
-        <v>7865897654</v>
-      </c>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AM7">
-        <v>7865897654</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3147,13 +2997,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3162,7 +3012,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
@@ -3173,17 +3023,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780BCD3-1090-446F-BC4B-EEC989BF319A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D965BC-9425-4D36-B481-1057004AC5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
   <si>
     <t>custType</t>
   </si>
@@ -183,9 +183,6 @@
     <t>2-85 Police Colony</t>
   </si>
   <si>
-    <t>Showroom</t>
-  </si>
-  <si>
     <t>Cold</t>
   </si>
   <si>
@@ -204,39 +201,6 @@
     <t/>
   </si>
   <si>
-    <t>Bkothagudem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuguru </t>
-  </si>
-  <si>
-    <t>507117</t>
-  </si>
-  <si>
-    <t>Manuguru</t>
-  </si>
-  <si>
-    <t>5-66 Bapanakunta</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Customer reference</t>
-  </si>
-  <si>
-    <t>800000</t>
-  </si>
-  <si>
-    <t>2022-07-21 06:25:21</t>
-  </si>
-  <si>
-    <t>Sccl</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -303,81 +267,6 @@
     <t>[{"amount": 7787.0, "receiptDate": "2024-11-25 00:00:00.000000", "modeOfPayment": "Booking Advance Amount"}, {"amount": 711180.0, "receiptDate": "2024-11-25 00:00:00.000000", "modeOfPayment": "Credit/Debit Card"}, {"amount": 500.0, "receiptDate": null, "modeOfPayment": "Vehicle Exchange Amount"}]</t>
   </si>
   <si>
-    <t>2024-11-20 18:43:40</t>
-  </si>
-  <si>
-    <t>Cheque</t>
-  </si>
-  <si>
-    <t>hs7gt6try6</t>
-  </si>
-  <si>
-    <t>Rohith raj</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Prakasam</t>
-  </si>
-  <si>
-    <t>Ongole</t>
-  </si>
-  <si>
-    <t>523225</t>
-  </si>
-  <si>
-    <t>B.Machavaram</t>
-  </si>
-  <si>
-    <t>32 s</t>
-  </si>
-  <si>
-    <t>100000.0</t>
-  </si>
-  <si>
-    <t>678.0</t>
-  </si>
-  <si>
-    <t>[{"amount": 545.0, "receiptDate": "2024-11-20 00:00:00.000000", "modeOfPayment": "Booking Advance Amount"}, {"amount": 106737.0, "receiptDate": "2024-11-20 00:00:00.000000", "modeOfPayment": "Cash"}]</t>
-  </si>
-  <si>
-    <t>2024-11-20 17:47:54</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>vin6764766734ff</t>
-  </si>
-  <si>
-    <t>76586srytr</t>
-  </si>
-  <si>
-    <t>Nikki Vignesh</t>
-  </si>
-  <si>
-    <t>Nampally</t>
-  </si>
-  <si>
-    <t>500001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyderabad </t>
-  </si>
-  <si>
-    <t>23 Hyderabad</t>
-  </si>
-  <si>
-    <t>343434.0</t>
-  </si>
-  <si>
-    <t>1200.0</t>
-  </si>
-  <si>
-    <t>[{"amount": 12900.0, "receiptDate": "2024-11-21 00:00:00.000000", "modeOfPayment": "Booking Advance Amount"}, {"amount": 409421.0, "receiptDate": "2024-11-21 00:00:00.000000", "modeOfPayment": "Cash"}]</t>
-  </si>
-  <si>
     <t>invoice_date</t>
   </si>
   <si>
@@ -510,45 +399,6 @@
     <t>500.0</t>
   </si>
   <si>
-    <t>680387.6</t>
-  </si>
-  <si>
-    <t>877700.0</t>
-  </si>
-  <si>
-    <t>2800.0</t>
-  </si>
-  <si>
-    <t>123270.00000000001</t>
-  </si>
-  <si>
-    <t>127070.00000000001</t>
-  </si>
-  <si>
-    <t>6455.0</t>
-  </si>
-  <si>
-    <t>4158.0</t>
-  </si>
-  <si>
-    <t>1379241.38</t>
-  </si>
-  <si>
-    <t>1999900.0</t>
-  </si>
-  <si>
-    <t>339983.0</t>
-  </si>
-  <si>
-    <t>343783.0</t>
-  </si>
-  <si>
-    <t>15777.0</t>
-  </si>
-  <si>
-    <t>19999.0</t>
-  </si>
-  <si>
     <t>vinno</t>
   </si>
   <si>
@@ -585,12 +435,6 @@
     <t>Row 1 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
   </si>
   <si>
-    <t>Row 2 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
-  </si>
-  <si>
-    <t>Row 3 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
-  </si>
-  <si>
     <t>Commercial</t>
   </si>
   <si>
@@ -633,15 +477,6 @@
     <t>Pre Approved</t>
   </si>
   <si>
-    <t xml:space="preserve">Gopi </t>
-  </si>
-  <si>
-    <t>Out House</t>
-  </si>
-  <si>
-    <t>State Bank Of India</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -651,18 +486,6 @@
     <t>With Family</t>
   </si>
   <si>
-    <t>Infra Plywood</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>CNG</t>
-  </si>
-  <si>
-    <t>ICICI Bank Ltd</t>
-  </si>
-  <si>
     <t>Whatsapp Blast</t>
   </si>
   <si>
@@ -675,36 +498,15 @@
     <t>CHENIGACHERLA SAMPATH RAJ</t>
   </si>
   <si>
-    <t>MALBH512TRM338094</t>
-  </si>
-  <si>
-    <t>MALBJ512LRM341076</t>
-  </si>
-  <si>
-    <t>A BHARATH</t>
-  </si>
-  <si>
     <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
   </si>
   <si>
     <t xml:space="preserve">CHENIGACHERLA SAMPATH RAJ </t>
   </si>
   <si>
-    <t>MALPA812LRM104432</t>
-  </si>
-  <si>
-    <t>AJAY PULIPATI</t>
-  </si>
-  <si>
     <t>nandKuamr@gmail.com</t>
   </si>
   <si>
-    <t>JeevanSatya@gmail.com</t>
-  </si>
-  <si>
-    <t>KumarRana@gmail.com</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -748,20 +550,6 @@
   </si>
   <si>
     <t>Warm</t>
-  </si>
-  <si>
-    <t>Row 2 execution FAILED: Failed to restart execution from Sales Menu step.</t>
-  </si>
-  <si>
-    <t>Row 3 execution FAILED: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=131.0.6778.265)
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '23.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c971094549a63d2d527d6906b1c3f649, refresh {}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\ADMIN\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62050}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:62050/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c971094549a63d2d527d6906b1c3f649</t>
   </si>
   <si>
     <t>Row 1 execution FAILED: Failed to restart execution from Sales Menu step.</t>
@@ -1234,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1383,27 +1171,27 @@
         <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="25">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>8798567137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -1427,270 +1215,102 @@
         <v>47</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" t="s">
-        <v>194</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE2" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>56</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
       </c>
       <c r="AS2" t="s">
         <v>46</v>
       </c>
       <c r="AT2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="37.5">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3">
-        <v>8232456178</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>68</v>
-      </c>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="Q3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="7"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
     </row>
-    <row r="4" spans="1:47" ht="25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4">
-        <v>9842845762</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R4" t="s">
-        <v>210</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>205</v>
-      </c>
+    <row r="4" spans="1:47">
+      <c r="D4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="7"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD4" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{AA56A644-5710-41D3-8898-EEBB720DCDA9}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C570946C-D583-4F97-9462-F43E7BC5D7A5}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{66CD34EE-C148-485B-87FF-1B5785823CB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1698,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1711,22 +1331,22 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1747,16 +1367,16 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1764,146 +1384,49 @@
         <v>8798567137</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>8232456178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>9842845762</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1913,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1926,285 +1449,165 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" ht="37.5" customHeight="1">
       <c r="A2">
         <v>8798567137</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="R2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="T2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="U2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="V2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="W2" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="X2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="Y2" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="Z2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="AC2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="AG2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3">
-        <v>8232456178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" t="s">
-        <v>164</v>
-      </c>
-      <c r="S3" t="s">
-        <v>164</v>
-      </c>
-      <c r="T3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" t="s">
-        <v>156</v>
-      </c>
-      <c r="W3" t="s">
-        <v>166</v>
-      </c>
-      <c r="X3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4">
-        <v>9842845762</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-      <c r="O4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R4" t="s">
-        <v>170</v>
-      </c>
-      <c r="S4" t="s">
-        <v>170</v>
-      </c>
-      <c r="T4" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V4" t="s">
-        <v>156</v>
-      </c>
-      <c r="W4" t="s">
-        <v>172</v>
-      </c>
-      <c r="X4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>187</v>
-      </c>
-    </row>
+    <row r="3" spans="1:33" ht="23.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2215,7 +1618,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2230,73 +1633,57 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="A3" s="10"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>214</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>200</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="A4" s="10"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>214</v>
-      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
   </sheetData>
@@ -2309,7 +1696,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2329,45 +1716,45 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="11" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2375,13 +1762,13 @@
         <v>8798567137</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="E2" s="13">
         <v>45682.451388888898</v>
@@ -2390,113 +1777,57 @@
         <v>45668.020833333299</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3">
-        <v>8232456178</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45682.451388888898</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45668.020833333299</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="12"/>
-      <c r="O3" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4">
-        <v>9842845762</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="13">
-        <v>45682.451388888898</v>
-      </c>
-      <c r="F4" s="13">
-        <v>45668.020833333299</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="O4" t="s">
-        <v>244</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2522,62 +1853,46 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>221</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>222</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D965BC-9425-4D36-B481-1057004AC5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2226231-9482-40E1-86CD-5EE8C8D2F770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="Test Drive - Enquiry" sheetId="5" r:id="rId5"/>
     <sheet name="SOT Leads" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,39 +170,99 @@
     <t>companyName</t>
   </si>
   <si>
+    <t>Error Logs</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Ravan</t>
+  </si>
+  <si>
+    <t>nandKuamr@gmail.com</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Telang+E3+F+F2:AH4</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Vikarabad</t>
+  </si>
+  <si>
+    <t>501101</t>
+  </si>
+  <si>
+    <t>2-85 Police Colony</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Whatsapp Blast</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Grand I10 NIOS</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Titan Grey (R4G)</t>
+  </si>
+  <si>
+    <t>ABYSS BLACK PEARL</t>
+  </si>
+  <si>
+    <t>In House</t>
+  </si>
+  <si>
+    <t>HDFC Bank Ltd</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>BEHARA ARUN KUMAR</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>With In 2 months</t>
+  </si>
+  <si>
+    <t>With Family</t>
+  </si>
+  <si>
+    <t>Pre Approved</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:26:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra Scorpio Purchased </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Already Purchased Scorpio Vehicle </t>
+  </si>
+  <si>
     <t>Government</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Vikarabad</t>
-  </si>
-  <si>
-    <t>501101</t>
-  </si>
-  <si>
-    <t>2-85 Police Colony</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>2024-06-06 16:26:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahindra Scorpio Purchased </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Already Purchased Scorpio Vehicle </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -267,6 +332,9 @@
     <t>[{"amount": 7787.0, "receiptDate": "2024-11-25 00:00:00.000000", "modeOfPayment": "Booking Advance Amount"}, {"amount": 711180.0, "receiptDate": "2024-11-25 00:00:00.000000", "modeOfPayment": "Credit/Debit Card"}, {"amount": 500.0, "receiptDate": null, "modeOfPayment": "Vehicle Exchange Amount"}]</t>
   </si>
   <si>
+    <t>Row 1 execution FAILED: Failed to restart execution from Sales Menu step.</t>
+  </si>
+  <si>
     <t>invoice_date</t>
   </si>
   <si>
@@ -399,6 +467,9 @@
     <t>500.0</t>
   </si>
   <si>
+    <t>Row 1 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
+  </si>
+  <si>
     <t>vinno</t>
   </si>
   <si>
@@ -417,142 +488,70 @@
     <t>empName</t>
   </si>
   <si>
+    <t>MALB351CYRM593531</t>
+  </si>
+  <si>
+    <t>4TH YEAR OR UP TO 80,000 KM EXTENDED WARRANTY</t>
+  </si>
+  <si>
+    <t>CHENIGACHERLA SAMPATH RAJ</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>TDOffer</t>
+  </si>
+  <si>
+    <t>TDVin</t>
+  </si>
+  <si>
+    <t>DepositCertificate</t>
+  </si>
+  <si>
     <t>test_drive_datetime</t>
   </si>
   <si>
+    <t>NextFollowUptime</t>
+  </si>
+  <si>
+    <t>TextFollow</t>
+  </si>
+  <si>
+    <t>FollowUptype</t>
+  </si>
+  <si>
+    <t>nextFollowUpType</t>
+  </si>
+  <si>
+    <t>EnquiryTypeValue</t>
+  </si>
+  <si>
     <t>followUpType</t>
   </si>
   <si>
     <t>followupRemarks</t>
   </si>
   <si>
+    <t>MALB551CYPM400978-Grand i10 NIOS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Need to check</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Home Visit</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
     <t>2023-06-05 10:56:00</t>
-  </si>
-  <si>
-    <t>Error Logs</t>
-  </si>
-  <si>
-    <t>Row 1 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Ravan</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>Telang+E3+F+F2:AH4</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>Grand I10 NIOS</t>
-  </si>
-  <si>
-    <t>PETROL</t>
-  </si>
-  <si>
-    <t>GLS</t>
-  </si>
-  <si>
-    <t>Titan Grey (R4G)</t>
-  </si>
-  <si>
-    <t>ABYSS BLACK PEARL</t>
-  </si>
-  <si>
-    <t>In House</t>
-  </si>
-  <si>
-    <t>HDFC Bank Ltd</t>
-  </si>
-  <si>
-    <t>BEHARA ARUN KUMAR</t>
-  </si>
-  <si>
-    <t>Pre Approved</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>With In 2 months</t>
-  </si>
-  <si>
-    <t>With Family</t>
-  </si>
-  <si>
-    <t>Whatsapp Blast</t>
-  </si>
-  <si>
-    <t>MALB351CYRM593531</t>
-  </si>
-  <si>
-    <t>4TH YEAR OR UP TO 80,000 KM EXTENDED WARRANTY</t>
-  </si>
-  <si>
-    <t>CHENIGACHERLA SAMPATH RAJ</t>
-  </si>
-  <si>
-    <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHENIGACHERLA SAMPATH RAJ </t>
-  </si>
-  <si>
-    <t>nandKuamr@gmail.com</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>TDOffer</t>
-  </si>
-  <si>
-    <t>TDVin</t>
-  </si>
-  <si>
-    <t>DepositCertificate</t>
-  </si>
-  <si>
-    <t>NextFollowUptime</t>
-  </si>
-  <si>
-    <t>TextFollow</t>
-  </si>
-  <si>
-    <t>FollowUptype</t>
-  </si>
-  <si>
-    <t>nextFollowUpType</t>
-  </si>
-  <si>
-    <t>EnquiryTypeValue</t>
-  </si>
-  <si>
-    <t>MALB551CYPM400978-Grand i10 NIOS</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Need to check</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Home Visit</t>
-  </si>
-  <si>
-    <t>Warm</t>
-  </si>
-  <si>
-    <t>Row 1 execution FAILED: Failed to restart execution from Sales Menu step.</t>
   </si>
   <si>
     <t>Row 1 execution FAILED: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()="Follow Up"]"}
@@ -565,6 +564,12 @@
 Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\ADMIN\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63010}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63010/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 20d9009a4e56c4552f80d7fbde56f8d8</t>
   </si>
+  <si>
+    <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHENIGACHERLA SAMPATH RAJ </t>
+  </si>
 </sst>
 </file>
 
@@ -573,14 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,47 +666,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{1A14863E-3F93-4E1E-B9B2-96E27A5F7083}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D924B725-4337-41A0-BA6F-0F6624E16348}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{B33B7A2C-F9E1-47B4-9311-86F54F1C475B}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{E79EB5CD-0A5D-4B75-8D8D-7ADBC584F316}"/>
-    <cellStyle name="Normal 6" xfId="6" xr:uid="{EB86B3C0-D20E-473E-BB9B-5A64859722BC}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{042C374C-8F85-487E-AC07-DB8FD07B7171}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{5C746197-97B7-4CBF-818C-82781F5993DD}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{68632B47-806C-4C5D-B4DB-129AF0080A69}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{7D6EDAEF-06FA-4783-8A20-88E5D97ADEBF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,7 +733,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -752,7 +745,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -799,23 +792,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -851,23 +827,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1020,15 +979,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -1171,182 +1130,155 @@
         <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="25">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>8798567137</v>
+        <v>8798564537</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>153</v>
+        <v>57</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>141</v>
+        <v>59</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>147</v>
+        <v>61</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Y2" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="Z2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>149</v>
+        <v>69</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47">
-      <c r="A3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="Q3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="7"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-    </row>
-    <row r="4" spans="1:47">
-      <c r="D4" s="2"/>
-      <c r="Q4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="7"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{AA56A644-5710-41D3-8898-EEBB720DCDA9}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2014D4F1-7D2B-4D80-8C3D-7B41C7259C4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C3C1DA-5D43-49D6-940F-5695390F74B5}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1367,66 +1299,66 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>8798567137</v>
+        <v>8798564537</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1435,256 +1367,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A78BF8B-92A8-451B-8853-A13DD57DD49D}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="P1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="R1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="S1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="T1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="U1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="V1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="W1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="Y1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="Z1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="AA1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="AB1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AC1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="AD1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="AE1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AF1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="AG1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="37.5" customHeight="1">
       <c r="A2">
-        <v>8798567137</v>
+        <v>8798564537</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="Q2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="V2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="W2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="X2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="Y2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="AC2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="AG2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="23.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901B46FA-4B82-449A-B818-0E4C783E142D}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,142 +1594,106 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2EE914-79D6-4E71-BC0E-BC73D3FECDBE}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="11"/>
       <c r="O1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>8798567137</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>8798564537</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="12">
+        <v>45682.451388888898</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45668.020833333299</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="13">
-        <v>45682.451388888898</v>
-      </c>
-      <c r="F2" s="13">
-        <v>45668.020833333299</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,64 +1701,47 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE11BB-90B7-4E75-AA49-4D10CF796EEE}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="59.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2226231-9482-40E1-86CD-5EE8C8D2F770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF354BE-4D1D-4A8B-992B-B2880FB31BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
     <sheet name="Booking Leads" sheetId="2" r:id="rId2"/>
     <sheet name="Invoice Leads" sheetId="3" r:id="rId3"/>
-    <sheet name="ExWarranty Leads" sheetId="4" r:id="rId4"/>
-    <sheet name="Test Drive - Enquiry" sheetId="5" r:id="rId5"/>
-    <sheet name="SOT Leads" sheetId="6" r:id="rId6"/>
+    <sheet name="ExWarranty Leads" sheetId="7" r:id="rId4"/>
+    <sheet name="Test Drive - Enquiry" sheetId="4" r:id="rId5"/>
+    <sheet name="SOT Leads" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="193">
   <si>
     <t>custType</t>
   </si>
@@ -176,18 +176,9 @@
     <t>Commercial</t>
   </si>
   <si>
-    <t>Ravan</t>
-  </si>
-  <si>
-    <t>nandKuamr@gmail.com</t>
-  </si>
-  <si>
     <t>MALE</t>
   </si>
   <si>
-    <t>Telang+E3+F+F2:AH4</t>
-  </si>
-  <si>
     <t>Telangana</t>
   </si>
   <si>
@@ -302,10 +293,10 @@
     <t>34233</t>
   </si>
   <si>
-    <t>uye7837uye</t>
-  </si>
-  <si>
-    <t>a a</t>
+    <t>DFEPM1764D</t>
+  </si>
+  <si>
+    <t>Jeevan</t>
   </si>
   <si>
     <t>Hyderabad</t>
@@ -314,15 +305,9 @@
     <t>Khairatabad</t>
   </si>
   <si>
-    <t>500082</t>
-  </si>
-  <si>
     <t>I.M.Colony</t>
   </si>
   <si>
-    <t>54 l</t>
-  </si>
-  <si>
     <t>718300.0</t>
   </si>
   <si>
@@ -332,9 +317,6 @@
     <t>[{"amount": 7787.0, "receiptDate": "2024-11-25 00:00:00.000000", "modeOfPayment": "Booking Advance Amount"}, {"amount": 711180.0, "receiptDate": "2024-11-25 00:00:00.000000", "modeOfPayment": "Credit/Debit Card"}, {"amount": 500.0, "receiptDate": null, "modeOfPayment": "Vehicle Exchange Amount"}]</t>
   </si>
   <si>
-    <t>Row 1 execution FAILED: Failed to restart execution from Sales Menu step.</t>
-  </si>
-  <si>
     <t>invoice_date</t>
   </si>
   <si>
@@ -428,6 +410,9 @@
     <t>additionalInsurance</t>
   </si>
   <si>
+    <t>9912050636</t>
+  </si>
+  <si>
     <t>2022-07-27</t>
   </si>
   <si>
@@ -467,7 +452,46 @@
     <t>500.0</t>
   </si>
   <si>
-    <t>Row 1 execution FAILED: Error during execution due to: Failed to double-click on the enquiry.</t>
+    <t>680387.6</t>
+  </si>
+  <si>
+    <t>877700.0</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>123270.00000000001</t>
+  </si>
+  <si>
+    <t>127070.00000000001</t>
+  </si>
+  <si>
+    <t>6455.0</t>
+  </si>
+  <si>
+    <t>4158.0</t>
+  </si>
+  <si>
+    <t>9440358176</t>
+  </si>
+  <si>
+    <t>1379241.38</t>
+  </si>
+  <si>
+    <t>1999900.0</t>
+  </si>
+  <si>
+    <t>339983.0</t>
+  </si>
+  <si>
+    <t>343783.0</t>
+  </si>
+  <si>
+    <t>15777.0</t>
+  </si>
+  <si>
+    <t>19999.0</t>
   </si>
   <si>
     <t>vinno</t>
@@ -497,6 +521,9 @@
     <t>CHENIGACHERLA SAMPATH RAJ</t>
   </si>
   <si>
+    <t>MALBH512TRM338094</t>
+  </si>
+  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -554,21 +581,34 @@
     <t>2023-06-05 10:56:00</t>
   </si>
   <si>
-    <t>Row 1 execution FAILED: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()="Follow Up"]"}
-  (Session info: chrome=131.0.6778.265)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.27.0', revision: 'd6e718d134'
-System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '23.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [20d9009a4e56c4552f80d7fbde56f8d8, findElement {using=xpath, value=//*[text()="Follow Up"]}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 131.0.6778.265, chrome: {chromedriverVersion: 131.0.6778.264 (2d05e315153..., userDataDir: C:\Users\ADMIN\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63010}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63010/devtoo..., se:cdpVersion: 131.0.6778.265, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 20d9009a4e56c4552f80d7fbde56f8d8</t>
+    <t>Video Conference</t>
   </si>
   <si>
     <t>AURA / EXTER - 3 YEARS OR UPTO 45,000 KM SHIELD OF TRUST PACKAGE</t>
   </si>
   <si>
     <t xml:space="preserve">CHENIGACHERLA SAMPATH RAJ </t>
+  </si>
+  <si>
+    <t>MALBJ512LRM341076</t>
+  </si>
+  <si>
+    <t>A BHARATH</t>
+  </si>
+  <si>
+    <t>MALPA812LRM104432</t>
+  </si>
+  <si>
+    <t>AJAY PULIPATI</t>
+  </si>
+  <si>
+    <t>JeeavnPaul@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeevan PRPERTIES</t>
+  </si>
+  <si>
+    <t>Ravan Raju</t>
   </si>
 </sst>
 </file>
@@ -578,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +659,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -666,15 +713,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -690,18 +738,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{042C374C-8F85-487E-AC07-DB8FD07B7171}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{5C746197-97B7-4CBF-818C-82781F5993DD}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{68632B47-806C-4C5D-B4DB-129AF0080A69}"/>
-    <cellStyle name="Normal 6" xfId="5" xr:uid="{7D6EDAEF-06FA-4783-8A20-88E5D97ADEBF}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{191A39C5-A66D-4DA8-AC97-F1E21173BD1B}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{8337D694-69EC-4BE6-9DF8-C6550F9BAFCE}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{88BD5213-5CB3-45BA-BBD9-F318B6608138}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{7455E527-BF89-4A1D-A22D-9D03ADDF0471}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{F2E1AEAD-4514-4F4D-AB8B-2E8857B3427C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -979,18 +1029,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="46" max="46" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,156 +1183,157 @@
       <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:47" ht="25">
+    <row r="2" spans="1:46" ht="25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2">
+        <v>9798009453</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
-        <v>8798564537</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="R2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="W2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="X2" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Z2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AE2" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AF2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AG2" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AS2" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>76</v>
-      </c>
       <c r="AT2" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2014D4F1-7D2B-4D80-8C3D-7B41C7259C4E}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9FD10399-F779-4681-B62D-3226D69E3B73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C3C1DA-5D43-49D6-940F-5695390F74B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7384D50-7691-4B71-A101-2320F6FF1F7D}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" customWidth="1"/>
+    <col min="15" max="15" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1299,13 +1354,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
         <v>46</v>
@@ -1313,52 +1368,49 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>8798564537</v>
+        <v>9798009453</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
         <v>92</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>93</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1367,173 +1419,310 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A78BF8B-92A8-451B-8853-A13DD57DD49D}">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2116A4-50C1-4AA2-920C-560317EB9A0D}">
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>119</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="B2" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" t="s">
-        <v>46</v>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="37.5" customHeight="1">
-      <c r="A2">
-        <v>8798564537</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:32">
+      <c r="A3">
+        <v>9550868592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3">
+        <v>146500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3">
+        <v>136892</v>
+      </c>
+      <c r="T3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3">
+        <v>2300</v>
+      </c>
+      <c r="V3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE3">
+        <v>53946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" t="s">
+        <v>150</v>
+      </c>
+      <c r="S4" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" t="s">
         <v>134</v>
       </c>
-      <c r="F2" t="s">
+      <c r="V4" t="s">
         <v>135</v>
       </c>
-      <c r="O2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" t="s">
-        <v>137</v>
-      </c>
-      <c r="S2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="W4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC4" t="s">
         <v>139</v>
       </c>
-      <c r="V2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>145</v>
+      <c r="AE4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1542,51 +1731,95 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901B46FA-4B82-449A-B818-0E4C783E142D}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3B7BE7-CCF1-4BA8-BB5A-3F41B5B36092}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
+    <row r="1" spans="1:7" ht="26.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="A2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,106 +1827,143 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2EE914-79D6-4E71-BC0E-BC73D3FECDBE}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB2C6A-D3AF-44E3-9C0D-6A1E1D2F3E51}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="10" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>8798564537</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="12">
+        <v>8737656307</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="11">
         <v>45682.451388888898</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>45668.020833333299</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" t="s">
-        <v>174</v>
-      </c>
+      <c r="G2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>9798009453</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45672.493055555598</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45669.020833333299</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,46 +1971,82 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE11BB-90B7-4E75-AA49-4D10CF796EEE}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241D6A73-11B6-4A74-8AB3-EDE5C0AD260C}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
+      <c r="A1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>176</v>
+      <c r="A2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF354BE-4D1D-4A8B-992B-B2880FB31BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA2122-2FE0-4D9D-87D7-BBB752EF6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="192">
   <si>
     <t>custType</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Government</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -602,13 +599,13 @@
     <t>AJAY PULIPATI</t>
   </si>
   <si>
-    <t>JeeavnPaul@gmail.com</t>
-  </si>
-  <si>
     <t>Jeevan PRPERTIES</t>
   </si>
   <si>
     <t>Ravan Raju</t>
+  </si>
+  <si>
+    <t>UdayJeeavn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1189,13 +1186,13 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2">
-        <v>9798009453</v>
+        <v>9798129453</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
         <v>48</v>
@@ -1288,7 +1285,7 @@
         <v>73</v>
       </c>
       <c r="AT2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1303,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7384D50-7691-4B71-A101-2320F6FF1F7D}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1318,22 +1315,22 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1354,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>82</v>
-      </c>
-      <c r="O1" t="s">
-        <v>83</v>
       </c>
       <c r="P1" t="s">
         <v>46</v>
@@ -1371,46 +1368,46 @@
         <v>9798009453</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>86</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
         <v>89</v>
-      </c>
-      <c r="I2" t="s">
-        <v>90</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
       </c>
       <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
         <v>91</v>
       </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>92</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>93</v>
-      </c>
-      <c r="O2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1422,177 +1419,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2116A4-50C1-4AA2-920C-560317EB9A0D}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>124</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" t="s">
         <v>131</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" t="s">
+        <v>135</v>
+      </c>
+      <c r="X2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE2" t="s">
         <v>131</v>
-      </c>
-      <c r="R2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T2" t="s">
-        <v>133</v>
-      </c>
-      <c r="U2" t="s">
-        <v>134</v>
-      </c>
-      <c r="V2" t="s">
-        <v>135</v>
-      </c>
-      <c r="W2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1600,61 +1599,61 @@
         <v>9550868592</v>
       </c>
       <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
       <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
         <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>141</v>
       </c>
       <c r="G3">
         <v>146500</v>
       </c>
       <c r="I3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" t="s">
         <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" t="s">
-        <v>143</v>
       </c>
       <c r="S3">
         <v>136892</v>
       </c>
       <c r="T3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U3">
         <v>2300</v>
       </c>
       <c r="V3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y3" t="s">
         <v>145</v>
       </c>
-      <c r="X3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>146</v>
-      </c>
       <c r="Z3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE3">
         <v>53946</v>
@@ -1662,67 +1661,67 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>148</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" t="s">
         <v>149</v>
       </c>
-      <c r="G4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" t="s">
         <v>150</v>
       </c>
-      <c r="S4" t="s">
-        <v>150</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" t="s">
+        <v>134</v>
+      </c>
+      <c r="W4" t="s">
         <v>151</v>
       </c>
-      <c r="U4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V4" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" t="s">
         <v>152</v>
       </c>
-      <c r="X4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>153</v>
-      </c>
       <c r="AC4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3B7BE7-CCF1-4BA8-BB5A-3F41B5B36092}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1751,49 +1750,49 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.5" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -1806,18 +1805,18 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -1830,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB2C6A-D3AF-44E3-9C0D-6A1E1D2F3E51}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1845,41 +1844,41 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="N1" s="10"/>
     </row>
@@ -1891,10 +1890,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="E2" s="11">
         <v>45682.451388888898</v>
@@ -1903,25 +1902,25 @@
         <v>45668.020833333299</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>74</v>
+      <c r="L2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="N2" s="10"/>
     </row>
@@ -1933,10 +1932,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="E3" s="11">
         <v>45672.493055555598</v>
@@ -1944,24 +1943,26 @@
       <c r="F3" s="11">
         <v>45669.020833333299</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="H3" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>74</v>
+      <c r="L3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1989,64 +1990,64 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA2122-2FE0-4D9D-87D7-BBB752EF6DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A889A4-2E40-40CA-87ED-79CA0F7B98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enquiry Lead Creation" sheetId="1" r:id="rId1"/>
     <sheet name="Booking Leads" sheetId="2" r:id="rId2"/>
     <sheet name="Invoice Leads" sheetId="3" r:id="rId3"/>
-    <sheet name="ExWarranty Leads" sheetId="7" r:id="rId4"/>
-    <sheet name="Test Drive - Enquiry" sheetId="4" r:id="rId5"/>
-    <sheet name="SOT Leads" sheetId="5" r:id="rId6"/>
+    <sheet name="ExWarranty Leads" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Drive - Enquiry" sheetId="5" r:id="rId5"/>
+    <sheet name="SOT Leads" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="191">
   <si>
     <t>custType</t>
   </si>
@@ -170,117 +170,126 @@
     <t>companyName</t>
   </si>
   <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Ravan Raju</t>
+  </si>
+  <si>
+    <t>UdayJeeavn@gmail.com</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Vikarabad</t>
+  </si>
+  <si>
+    <t>501101</t>
+  </si>
+  <si>
+    <t>2-85 Police Colony</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Whatsapp Blast</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Grand I10 NIOS</t>
+  </si>
+  <si>
+    <t>PETROL</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Titan Grey (R4G)</t>
+  </si>
+  <si>
+    <t>ABYSS BLACK PEARL</t>
+  </si>
+  <si>
+    <t>In House</t>
+  </si>
+  <si>
+    <t>HDFC Bank Ltd</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>BEHARA ARUN KUMAR</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>With In 2 months</t>
+  </si>
+  <si>
+    <t>With Family</t>
+  </si>
+  <si>
+    <t>Pre Approved</t>
+  </si>
+  <si>
+    <t>2024-06-06 16:26:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahindra Scorpio Purchased </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Already Purchased Scorpio Vehicle </t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Jeevan PRPERTIES</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>bookingDate</t>
+  </si>
+  <si>
+    <t>modeOfPayment</t>
+  </si>
+  <si>
+    <t>VinNo</t>
+  </si>
+  <si>
+    <t>panNo</t>
+  </si>
+  <si>
+    <t>regName</t>
+  </si>
+  <si>
+    <t>ex_showroom_price</t>
+  </si>
+  <si>
+    <t>RTOamount</t>
+  </si>
+  <si>
+    <t>booking_details</t>
+  </si>
+  <si>
     <t>Error Logs</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Vikarabad</t>
-  </si>
-  <si>
-    <t>501101</t>
-  </si>
-  <si>
-    <t>2-85 Police Colony</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>Whatsapp Blast</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Grand I10 NIOS</t>
-  </si>
-  <si>
-    <t>PETROL</t>
-  </si>
-  <si>
-    <t>GLS</t>
-  </si>
-  <si>
-    <t>Titan Grey (R4G)</t>
-  </si>
-  <si>
-    <t>ABYSS BLACK PEARL</t>
-  </si>
-  <si>
-    <t>In House</t>
-  </si>
-  <si>
-    <t>HDFC Bank Ltd</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>BEHARA ARUN KUMAR</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>With In 2 months</t>
-  </si>
-  <si>
-    <t>With Family</t>
-  </si>
-  <si>
-    <t>Pre Approved</t>
-  </si>
-  <si>
-    <t>2024-06-06 16:26:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahindra Scorpio Purchased </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Already Purchased Scorpio Vehicle </t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>bookingDate</t>
-  </si>
-  <si>
-    <t>modeOfPayment</t>
-  </si>
-  <si>
-    <t>VinNo</t>
-  </si>
-  <si>
-    <t>panNo</t>
-  </si>
-  <si>
-    <t>regName</t>
-  </si>
-  <si>
-    <t>ex_showroom_price</t>
-  </si>
-  <si>
-    <t>RTOamount</t>
-  </si>
-  <si>
-    <t>booking_details</t>
-  </si>
-  <si>
     <t>2024-11-25 10:53:59</t>
   </si>
   <si>
@@ -407,9 +416,6 @@
     <t>additionalInsurance</t>
   </si>
   <si>
-    <t>9912050636</t>
-  </si>
-  <si>
     <t>2022-07-27</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
     <t>1359300.0</t>
   </si>
   <si>
+    <t>2800.0</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -455,9 +464,6 @@
     <t>877700.0</t>
   </si>
   <si>
-    <t>2800.0</t>
-  </si>
-  <si>
     <t>123270.00000000001</t>
   </si>
   <si>
@@ -521,6 +527,12 @@
     <t>MALBH512TRM338094</t>
   </si>
   <si>
+    <t>MALBJ512LRM341076</t>
+  </si>
+  <si>
+    <t>A BHARATH</t>
+  </si>
+  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -587,25 +599,10 @@
     <t xml:space="preserve">CHENIGACHERLA SAMPATH RAJ </t>
   </si>
   <si>
-    <t>MALBJ512LRM341076</t>
-  </si>
-  <si>
-    <t>A BHARATH</t>
-  </si>
-  <si>
     <t>MALPA812LRM104432</t>
   </si>
   <si>
     <t>AJAY PULIPATI</t>
-  </si>
-  <si>
-    <t>Jeevan PRPERTIES</t>
-  </si>
-  <si>
-    <t>Ravan Raju</t>
-  </si>
-  <si>
-    <t>UdayJeeavn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -655,14 +652,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -735,20 +732,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{191A39C5-A66D-4DA8-AC97-F1E21173BD1B}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{8337D694-69EC-4BE6-9DF8-C6550F9BAFCE}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{88BD5213-5CB3-45BA-BBD9-F318B6608138}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{7455E527-BF89-4A1D-A22D-9D03ADDF0471}"/>
-    <cellStyle name="Normal 6" xfId="5" xr:uid="{F2E1AEAD-4514-4F4D-AB8B-2E8857B3427C}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{FABD66B5-74DF-4013-92E8-1B975A1D15E8}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{48B06C17-F816-446C-BD28-5715C84E99B0}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{0C1BACB2-9CF6-4C28-838D-6E80968973F0}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{43B0DD00-09AC-493D-BF37-C8AF85FC3809}"/>
+    <cellStyle name="Normal 6" xfId="6" xr:uid="{08B1ECA7-9BB0-4CA4-BEA0-65D3DDB6E350}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1028,17 +1025,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="46" max="46" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -1183,154 +1176,150 @@
     </row>
     <row r="2" spans="1:46" ht="25">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>190</v>
       </c>
       <c r="C2">
         <v>9798129453</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="AC2" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AS2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9FD10399-F779-4681-B62D-3226D69E3B73}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8FB0C90E-9E5C-4C90-B0D8-20959CBA7999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7384D50-7691-4B71-A101-2320F6FF1F7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E59879-C93A-4DFB-A9FF-E0DF95D44EC3}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="15.08984375" customWidth="1"/>
-    <col min="15" max="15" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1351,16 +1340,16 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1368,46 +1357,46 @@
         <v>9798009453</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1416,182 +1405,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2116A4-50C1-4AA2-920C-560317EB9A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E92DC4-A185-4A47-961C-393F751A1754}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>125</v>
+      <c r="A2">
+        <v>9912050636</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" t="s">
         <v>141</v>
       </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U2" t="s">
-        <v>133</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AE2" t="s">
         <v>134</v>
-      </c>
-      <c r="W2" t="s">
-        <v>135</v>
-      </c>
-      <c r="X2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1599,61 +1582,61 @@
         <v>9550868592</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>146500</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S3">
         <v>136892</v>
       </c>
       <c r="T3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U3">
         <v>2300</v>
       </c>
       <c r="V3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="W3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AC3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AE3">
         <v>53946</v>
@@ -1661,67 +1644,67 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC4" t="s">
         <v>141</v>
       </c>
-      <c r="I4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" t="s">
-        <v>149</v>
-      </c>
-      <c r="S4" t="s">
-        <v>149</v>
-      </c>
-      <c r="T4" t="s">
-        <v>150</v>
-      </c>
-      <c r="U4" t="s">
-        <v>133</v>
-      </c>
-      <c r="V4" t="s">
-        <v>134</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="AE4" t="s">
         <v>151</v>
-      </c>
-      <c r="X4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1730,95 +1713,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3B7BE7-CCF1-4BA8-BB5A-3F41B5B36092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC0E220-5368-489E-A411-392E363C556F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.1796875" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="E1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="12"/>
+      <c r="A4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,145 +1807,143 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB2C6A-D3AF-44E3-9C0D-6A1E1D2F3E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F67E03E-05FE-464F-8D02-0AB39AA12506}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
-    <col min="6" max="6" width="38.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="I1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
         <v>8737656307</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="B2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="13">
         <v>45682.451388888898</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>45668.020833333299</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="N2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
         <v>9798009453</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="13">
         <v>45672.493055555598</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>45669.020833333299</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="N3" s="10"/>
+      <c r="J3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1972,82 +1951,81 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241D6A73-11B6-4A74-8AB3-EDE5C0AD260C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E69F0-40D0-4CCA-A0B4-7CDDC6423795}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>158</v>
+      <c r="D1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>184</v>
+      <c r="A2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>186</v>
+      <c r="A3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>188</v>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/NewEnquiryWeb.xlsx
+++ b/src/test/resources/config/NewEnquiryWeb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A889A4-2E40-40CA-87ED-79CA0F7B98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7718A90-AE03-4D43-8690-3B2C370A4F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,11 +741,11 @@
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{FABD66B5-74DF-4013-92E8-1B975A1D15E8}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{48B06C17-F816-446C-BD28-5715C84E99B0}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{0C1BACB2-9CF6-4C28-838D-6E80968973F0}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{43B0DD00-09AC-493D-BF37-C8AF85FC3809}"/>
-    <cellStyle name="Normal 6" xfId="6" xr:uid="{08B1ECA7-9BB0-4CA4-BEA0-65D3DDB6E350}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{32C652EB-FAE6-4FC3-8264-C13F8940589A}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{9577C1A5-C479-4670-9256-AB4047471CAD}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{9C4E4423-6428-4BAB-B00E-D7FCA0F76AFC}"/>
+    <cellStyle name="Normal 5" xfId="2" xr:uid="{4DA3A3CC-3033-4A4C-93A6-3204C428275A}"/>
+    <cellStyle name="Normal 6" xfId="6" xr:uid="{AA6DBD64-F776-46E0-8685-E1C4368CE55E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,13 +1025,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -1182,7 +1184,7 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>9798129453</v>
+        <v>8767829453</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -1283,23 +1285,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8FB0C90E-9E5C-4C90-B0D8-20959CBA7999}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{20EEA049-CA1D-4DE2-91A5-0C131A8F74B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E59879-C93A-4DFB-A9FF-E0DF95D44EC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F889ED3B-5358-4A0D-9C76-AF5AE7F084E3}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1354,7 +1356,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>9798009453</v>
+        <v>8767829453</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -1405,14 +1407,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E92DC4-A185-4A47-961C-393F751A1754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C65FC-7F6A-4E8D-8135-D48A0B5AA058}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
@@ -1579,7 +1584,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3">
-        <v>9550868592</v>
+        <v>7799308878</v>
       </c>
       <c r="B3" t="s">
         <v>128</v>
@@ -1594,7 +1599,7 @@
         <v>143</v>
       </c>
       <c r="G3">
-        <v>146500</v>
+        <v>126500</v>
       </c>
       <c r="I3" t="s">
         <v>132</v>
@@ -1612,7 +1617,7 @@
         <v>144</v>
       </c>
       <c r="S3">
-        <v>136892</v>
+        <v>115262</v>
       </c>
       <c r="T3" t="s">
         <v>145</v>
@@ -1639,7 +1644,7 @@
         <v>141</v>
       </c>
       <c r="AE3">
-        <v>53946</v>
+        <v>47678</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1713,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC0E220-5368-489E-A411-392E363C556F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B9E56-0E31-455B-91AD-B690E928B2C5}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1722,11 +1727,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.5" customHeight="1">
@@ -1807,18 +1808,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F67E03E-05FE-464F-8D02-0AB39AA12506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD351FAA-842C-4A9D-A7DC-6C94BB14C687}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1905,7 +1906,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>9798009453</v>
+        <v>8767829453</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>67</v>
@@ -1951,19 +1952,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E69F0-40D0-4CCA-A0B4-7CDDC6423795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E09F8E6-91CB-46B1-89D7-B479871AFE5E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="71.36328125" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
